--- a/VL.Research/XMLConfig/ChildHeathOrganization/儿童保健和健康情况表（2019年版）.xlsx
+++ b/VL.Research/XMLConfig/ChildHeathOrganization/儿童保健和健康情况表（2019年版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="21240" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>七岁以下儿童保健和健康情况年报表</t>
   </si>
@@ -252,10 +252,16 @@
     <t>填表单位：</t>
   </si>
   <si>
+    <t>@DataUser_FuWuJGMC</t>
+  </si>
+  <si>
     <t>单位领导：</t>
   </si>
   <si>
     <t>填表人：</t>
+  </si>
+  <si>
+    <t>@DataUser_Name</t>
   </si>
   <si>
     <t>填表日期：      年    月    日</t>
@@ -266,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -308,6 +314,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -338,15 +404,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,61 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,22 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -460,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +675,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -687,8 +702,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,24 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -740,32 +772,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,134 +795,134 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +937,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1289,7 +1298,7 @@
   <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1388,11 +1397,11 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="2"/>
@@ -1442,7 +1451,7 @@
       <c r="Y3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AA3" s="2" t="s">
@@ -1461,13 +1470,13 @@
       </c>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="6" t="s">
+      <c r="AK3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="8"/>
+      <c r="AM3" s="9"/>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="2"/>
@@ -1527,7 +1536,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="6"/>
+      <c r="Z4" s="7"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
         <v>30</v>
@@ -1556,11 +1565,11 @@
       <c r="AJ4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6" t="s">
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AM4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1590,7 +1599,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="7"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1601,9 +1610,9 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="4" t="s">
@@ -1726,27 +1735,31 @@
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1755,22 +1768,22 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
@@ -1778,7 +1791,7 @@
       <c r="AM7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="X1:AM1"/>
     <mergeCell ref="F2:H2"/>
@@ -1793,6 +1806,8 @@
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="M7:P7"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
